--- a/solomon_chart/data/Aristotle.xlsx
+++ b/solomon_chart/data/Aristotle.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="549">
   <si>
     <t>请你扮演古希腊哲学家亚里士多德，请以他的哲学思想和口吻回答问题。</t>
   </si>
@@ -1661,7 +1661,7 @@
     <t>我是亚里士多德，古希腊的哲学家、科学家和教育家。是柏拉图的学生，亚历山大的老师。后人都称我是“最博学的人”，作为一位百科全书式的科学家，我几乎对每个学科都做出了贡献。我在雅典办了一所叫吕克昂的学校，被称为逍遥学派。我的著作涉及伦理学、形而上学、心理学、经济学、神学、政治学、修辞学、自然科学、教育学、诗歌、风俗，以及雅典法律。著作构建了西方哲学的第一个广泛系统，包含道德、美学、逻辑和科学、政治和玄学。代表作有《工具论》，《物理学》，《形而上学》，《伦理学》，《政治学》等。</t>
   </si>
   <si>
-    <t>请简要一下自己？</t>
+    <t>请简要介绍一下你自己？</t>
   </si>
   <si>
     <t>你叫什么名字？</t>
@@ -2866,10 +2866,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C400"/>
+  <dimension ref="A1:C410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
-      <selection activeCell="C403" sqref="C403"/>
+    <sheetView tabSelected="1" topLeftCell="B405" workbookViewId="0">
+      <selection activeCell="C414" sqref="C414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2956,7 +2956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" ht="28" spans="1:3">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" ht="28" spans="1:3">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" ht="42" spans="1:3">
+    <row r="43" ht="28" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" ht="28" spans="1:3">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" ht="28" spans="1:3">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" ht="28" spans="1:3">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" ht="42" spans="1:3">
+    <row r="56" ht="28" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" ht="42" spans="1:3">
+    <row r="58" ht="28" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" ht="42" spans="1:3">
+    <row r="60" ht="28" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" ht="42" spans="1:3">
+    <row r="65" ht="28" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" ht="28" spans="1:3">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" ht="42" spans="1:3">
+    <row r="79" ht="28" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" ht="42" spans="1:3">
+    <row r="81" ht="28" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" ht="56" spans="1:3">
+    <row r="83" ht="42" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" ht="28" spans="1:3">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" ht="42" spans="1:3">
+    <row r="86" ht="28" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" ht="42" spans="1:3">
+    <row r="91" ht="28" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="94" ht="42" spans="1:3">
+    <row r="94" ht="28" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="97" ht="28" spans="1:3">
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="103" ht="28" spans="1:3">
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="106" ht="28" spans="1:3">
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" ht="28" spans="1:3">
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="111" ht="42" spans="1:3">
+    <row r="111" ht="28" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="112" ht="42" spans="1:3">
+    <row r="112" ht="28" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="120" ht="28" spans="1:3">
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="122" ht="42" spans="1:3">
+    <row r="122" ht="28" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="123" ht="42" spans="1:3">
+    <row r="123" ht="28" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="124" ht="42" spans="1:3">
+    <row r="124" ht="28" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="125" ht="42" spans="1:3">
+    <row r="125" ht="28" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="135" ht="42" spans="1:3">
+    <row r="135" ht="28" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="136" ht="56" spans="1:3">
+    <row r="136" ht="42" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="138" ht="56" spans="1:3">
+    <row r="138" ht="42" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="140" ht="28" spans="1:3">
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="145" ht="28" spans="1:3">
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="149" ht="42" spans="1:3">
+    <row r="149" ht="28" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="151" ht="28" spans="1:3">
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="165" ht="56" spans="1:3">
+    <row r="165" ht="42" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>0</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="167" ht="84" spans="1:3">
+    <row r="167" ht="70" spans="1:3">
       <c r="A167" s="1" t="s">
         <v>0</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="178" ht="28" spans="1:3">
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>0</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="179" ht="28" spans="1:3">
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" ht="28" spans="1:3">
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>0</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="208" ht="28" spans="1:3">
+    <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
         <v>0</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="229" ht="28" spans="1:3">
+    <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
         <v>0</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="233" ht="42" spans="1:3">
+    <row r="233" ht="28" spans="1:3">
       <c r="A233" s="1" t="s">
         <v>0</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="234" ht="28" spans="1:3">
+    <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
         <v>0</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="238" ht="28" spans="1:3">
+    <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
         <v>0</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="240" ht="28" spans="1:3">
+    <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
         <v>0</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="246" ht="42" spans="1:3">
+    <row r="246" ht="28" spans="1:3">
       <c r="A246" s="1" t="s">
         <v>0</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="248" ht="42" spans="1:3">
+    <row r="248" ht="28" spans="1:3">
       <c r="A248" s="1" t="s">
         <v>0</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="250" ht="42" spans="1:3">
+    <row r="250" ht="28" spans="1:3">
       <c r="A250" s="1" t="s">
         <v>0</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="255" ht="42" spans="1:3">
+    <row r="255" ht="28" spans="1:3">
       <c r="A255" s="1" t="s">
         <v>0</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="260" ht="28" spans="1:3">
+    <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
         <v>0</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="269" ht="42" spans="1:3">
+    <row r="269" ht="28" spans="1:3">
       <c r="A269" s="1" t="s">
         <v>0</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="271" ht="42" spans="1:3">
+    <row r="271" ht="28" spans="1:3">
       <c r="A271" s="1" t="s">
         <v>0</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="273" ht="56" spans="1:3">
+    <row r="273" ht="42" spans="1:3">
       <c r="A273" s="1" t="s">
         <v>0</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="274" ht="28" spans="1:3">
+    <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
         <v>0</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="276" ht="42" spans="1:3">
+    <row r="276" ht="28" spans="1:3">
       <c r="A276" s="1" t="s">
         <v>0</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="281" ht="42" spans="1:3">
+    <row r="281" ht="28" spans="1:3">
       <c r="A281" s="1" t="s">
         <v>0</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="284" ht="42" spans="1:3">
+    <row r="284" ht="28" spans="1:3">
       <c r="A284" s="1" t="s">
         <v>0</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="287" ht="28" spans="1:3">
+    <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
         <v>0</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="293" ht="28" spans="1:3">
+    <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
         <v>0</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="296" ht="28" spans="1:3">
+    <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
         <v>0</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="297" ht="28" spans="1:3">
+    <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
         <v>0</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="301" ht="42" spans="1:3">
+    <row r="301" ht="28" spans="1:3">
       <c r="A301" s="1" t="s">
         <v>0</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="302" ht="42" spans="1:3">
+    <row r="302" ht="28" spans="1:3">
       <c r="A302" s="1" t="s">
         <v>0</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="310" ht="28" spans="1:3">
+    <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
         <v>0</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="312" ht="42" spans="1:3">
+    <row r="312" ht="28" spans="1:3">
       <c r="A312" s="1" t="s">
         <v>0</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="313" ht="42" spans="1:3">
+    <row r="313" ht="28" spans="1:3">
       <c r="A313" s="1" t="s">
         <v>0</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="314" ht="42" spans="1:3">
+    <row r="314" ht="28" spans="1:3">
       <c r="A314" s="1" t="s">
         <v>0</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="315" ht="42" spans="1:3">
+    <row r="315" ht="28" spans="1:3">
       <c r="A315" s="1" t="s">
         <v>0</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="325" ht="42" spans="1:3">
+    <row r="325" ht="28" spans="1:3">
       <c r="A325" s="1" t="s">
         <v>0</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="326" ht="56" spans="1:3">
+    <row r="326" ht="42" spans="1:3">
       <c r="A326" s="1" t="s">
         <v>0</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="328" ht="56" spans="1:3">
+    <row r="328" ht="42" spans="1:3">
       <c r="A328" s="1" t="s">
         <v>0</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="330" ht="28" spans="1:3">
+    <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
         <v>0</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="335" ht="28" spans="1:3">
+    <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
         <v>0</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="339" ht="42" spans="1:3">
+    <row r="339" ht="28" spans="1:3">
       <c r="A339" s="1" t="s">
         <v>0</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="341" ht="28" spans="1:3">
+    <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
         <v>0</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="355" ht="56" spans="1:3">
+    <row r="355" ht="42" spans="1:3">
       <c r="A355" s="1" t="s">
         <v>0</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="357" ht="84" spans="1:3">
+    <row r="357" ht="70" spans="1:3">
       <c r="A357" s="1" t="s">
         <v>0</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="368" ht="28" spans="1:3">
+    <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
         <v>0</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="369" ht="28" spans="1:3">
+    <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
         <v>0</v>
       </c>
@@ -7217,6 +7217,56 @@
       </c>
       <c r="C400" s="3" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="401" ht="98" spans="3:3">
+      <c r="C401" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3">
+      <c r="C402" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="403" ht="98" spans="3:3">
+      <c r="C403" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3">
+      <c r="C404" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="405" ht="98" spans="3:3">
+      <c r="C405" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3">
+      <c r="C406" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="407" ht="98" spans="3:3">
+      <c r="C407" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3">
+      <c r="C408" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="409" ht="98" spans="3:3">
+      <c r="C409" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3">
+      <c r="C410" s="3" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
